--- a/medicine/Enfance/Christian_Pineau/Christian_Pineau.xlsx
+++ b/medicine/Enfance/Christian_Pineau/Christian_Pineau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Christian Pineau, né le 14 octobre 1904 à Chaumont (Haute-Marne) et mort le 5 avril 1995 à Paris[1], est un homme politique et déporté résistant socialiste français.
+Christian Pineau, né le 14 octobre 1904 à Chaumont (Haute-Marne) et mort le 5 avril 1995 à Paris, est un homme politique et déporté résistant socialiste français.
 </t>
         </is>
       </c>
@@ -514,33 +526,178 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Christian Pineau effectue ses études secondaires à l'École alsacienne[2]. Il suit des études de droit et de science politique. Il est titulaire d'une licence de droit et est diplômé de l'École libre des sciences politiques[3]. 
-Parcours professionnel
-Il est reçu à la la Banque de France en 1926 et y travaille jusqu'en 1928[4]. Il la quitte à cette date pour intégrer la Banque de Paris et des Pays-Bas, dont il est licencié en 1938 pour avoir soutenu un appel à la grève[5].
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Pineau effectue ses études secondaires à l'École alsacienne. Il suit des études de droit et de science politique. Il est titulaire d'une licence de droit et est diplômé de l'École libre des sciences politiques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est reçu à la la Banque de France en 1926 et y travaille jusqu'en 1928. Il la quitte à cette date pour intégrer la Banque de Paris et des Pays-Bas, dont il est licencié en 1938 pour avoir soutenu un appel à la grève.
 Il milite en effet à la Confédération générale du travail (CGT) et devient un proche de Léon Jouhaux. De 1936 à 1939, il est secrétaire adjoint de la Fédération des employés de Banque, puis permanent et secrétaire du conseil économique de la CGT de 1938 à 1939. Il défend alors les positions planistes.
 Au début de la guerre, il est nommé chef de cabinet de Jean Giraudoux, commissaire à l'information, qui avait épousé la mère de Pineau, divorcée en 1921. Pineau dit plus tard que c'est Giraudoux qui lui a transmis l'amour de l'écriture, même si les relations entre les deux hommes étaient difficiles, Giraudoux ne partageant pas les engagements à gauche de Pineau. En 1941, il occupe le poste d'inspecteur du ravitaillement, pour le Gouvernement de Vichy.
-Résistance et déportation
-Aux débuts de la guerre, Pineau est relativement isolé, la plupart de ses proches syndicalistes, comme René Belin, versant dans le soutien à Pétain, puis la Collaboration. Il se rapproche alors de Robert Lacoste, secrétaire de la fédération des fonctionnaires CGT, avec qui il partage de nombreuses analyses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Résistance et déportation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux débuts de la guerre, Pineau est relativement isolé, la plupart de ses proches syndicalistes, comme René Belin, versant dans le soutien à Pétain, puis la Collaboration. Il se rapproche alors de Robert Lacoste, secrétaire de la fédération des fonctionnaires CGT, avec qui il partage de nombreuses analyses.
 Après la dissolution des organisations syndicales par le régime de Vichy, il est un des signataires du « Manifeste du syndicalisme français », plus connu sous le nom de « Manifeste des douze », en novembre 1940. Ce texte, qui associe responsables CGT (Pineau, Lacoste, Oreste Capocci, Léon Chevalme, Albert Gazier, Eugène Jaccoud, Pierre Neumeyer, Louis Saillant et Victor Vandeputte) et CFTC (Jules Zirnheld, Gaston Tessier et Maurice Boudaloux) pose les bases d'une résistance syndicale à l'occupant.
 Résistant, il est l'un des fondateurs du mouvement Libération Nord au côté de Jean Cavaillès dès octobre 1940. À partir de décembre, il diffuse un bulletin clandestin, Libération dont il assure à peu près seul la rédaction jusqu'en mars 1942.
 Il est membre du Comité d'action socialiste, mis sur pied par Daniel Mayer pour impulser la résistance au sein de la SFIO. Le no 52 (30 novembre 1941) publie le « Manifeste du mouvement Libération-Nord » qui recrute surtout dans les milieux socialistes et syndicalistes non communistes.
 En 1942, Pierre Brossolette lui propose de se rendre à Londres. Il part le 27 mars avec François Faure. Il rencontre le général Charles de Gaulle et se rallie à la France libre, bien qu'il ait des doutes sur les convictions républicaines du général. Il est à l'origine de la Déclaration du général aux mouvements de Résistance, publiée le 3 juin 1942 par le journal clandestin Libération.
 Il fonde les réseaux Phalanx et Cohors-Asturies, avec Jean Cavaillès.
 Revenu à Londres le 15 janvier 1943, il plaide pour une unification des mouvements de Résistance et des partis politiques, ce qui sera réalisé dans le Conseil national de la Résistance.
-De retour en France, il est arrêté par la Gestapo en mai 1943 et déporté au camp de Buchenwald. Il est sans doute le dernier résistant à avoir vu à Lyon Jean Moulin vivant[6].
-Libération et Quatrième République
-Il est appelé par de Gaulle au gouvernement provisoire comme ministre du ravitaillement en mai 1945, quelques jours seulement après son retour de déportation.
+De retour en France, il est arrêté par la Gestapo en mai 1943 et déporté au camp de Buchenwald. Il est sans doute le dernier résistant à avoir vu à Lyon Jean Moulin vivant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Libération et Quatrième République</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est appelé par de Gaulle au gouvernement provisoire comme ministre du ravitaillement en mai 1945, quelques jours seulement après son retour de déportation.
 Après avoir rejoint la SFIO, Pineau devient député socialiste de la Sarthe en 1945 et le reste jusqu'en 1958. Il est aussi conseiller général de la Sarthe à partir de 1955.
 Ministre sous la Quatrième République (de façon continue de novembre 1947 à février 1950), il a à son actif le développement de la marine marchande, la création du conseil supérieur des transports, l'amélioration du statut des fonctionnaires et la création d'Air France.
 En 1952, il est sollicité par Vincent Auriol pour constituer un gouvernement, mais décline l'offre.
 Au sein de la SFIO, dont il a intégré le comité directeur en 1951, il est un soutien indéfectible du secrétaire général Guy Mollet.
 En février 1955, il est désigné comme président du Conseil après la chute du gouvernement Pierre Mendès France, mais le gouvernement qu'il constitue n'est pas investi par l'Assemblée nationale et ne recueille que 268 voix contre 312. Pineau paye alors ses engagements très pro-européens et notamment sa défense acharnée de la Communauté européenne de défense.
-De février 1956 à mai 1958, il est ministre des Affaires étrangères et participe à la mise en œuvre de l'expédition de Suez, ainsi qu'à la signature du protocole d'indépendance de la Tunisie le 20 mars 1956 avec le premier ministre tunisien Tahar Ben Ammar[7].
+De février 1956 à mai 1958, il est ministre des Affaires étrangères et participe à la mise en œuvre de l'expédition de Suez, ainsi qu'à la signature du protocole d'indépendance de la Tunisie le 20 mars 1956 avec le premier ministre tunisien Tahar Ben Ammar.
 Il négocie le Traité de Rome, créant la Communauté économique européenne, qu'il signe, avec Maurice Faure, au nom de la France.
 Il tente une « ouverture vers l'Est » en se rendant à Moscou avec le président du Conseil, Mollet.
-Cinquième République
-Opposé au retour au pouvoir de de Gaulle en mai 1958, il s'éloigne pour la première fois de la ligne défendue par Mollet, et se rapproche d'Albert Gazier sans toutefois vouloir entrer dans une minorité interne à la SFIO.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinquième République</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opposé au retour au pouvoir de de Gaulle en mai 1958, il s'éloigne pour la première fois de la ligne défendue par Mollet, et se rapproche d'Albert Gazier sans toutefois vouloir entrer dans une minorité interne à la SFIO.
 Mis en difficulté par le changement de mode de scrutin, Pineau, qui concentrait son action sur l'activité ministérielle et parlementaire, est contraint de se présenter dans une circonscription voisine de celle de son canton et où il est moins connu, et il perd son siège de député. Il tente lors des élections suivantes de briguer une circonscription des Alpes-Maritimes, sans succès.
 Il est cependant constamment réélu conseiller général jusqu'en 1979.
 Candidat malheureux à la mairie du Mans en 1959, il s'oppose ensuite à la stratégie d'union de la gauche pratiquée par les socialistes locaux à partir de 1965.
@@ -551,31 +708,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écrivain et militant mutualiste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès les années 1960, il consacre cependant une grande partie de son activité à l'écriture, notamment avec deux romans fortement autobiographiques, Mon cher député (1959) et L'escalier des ombres (1963), le dernier consacré à la période de l'Occupation. Il rédige aussi des récits de souvenirs.
 Il publie aussi régulièrement, pendant une vingtaine d'années, des contes pour enfants aux éditions Hachette.
@@ -585,31 +744,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Fonctions gouvernementales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Inspecteur du Ravitaillement, pour le gouvernement de Vichy en 1941.
 Ministre du Ravitaillement du gouvernement Charles de Gaulle (1) (du 30 mai au 21 novembre 1945)
@@ -624,33 +785,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(liste exhaustive)[8]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(liste exhaustive)
 La S.N.C.F. et les transports français ; Paris, S.E.P.E., 1950.
 Mon cher député ; Paris : R. Julliard, 1959
 La Simple Vérité, regard sur la période 1940-1945 ; 2 tomes; Paris : R. Julliard, 1960.
@@ -659,7 +822,7 @@
 1956, Suez ; Paris : Éditions Robert Laffont, 1976.
 « La résistance : Les mouvements », dans Jacques Meyer (dir.) et alii, Vie et mort des Français (1939-1945), Paris, Hachette (réimpr. 1980) (1re éd. 1971), 614 p., p. 293-324.
 Le Grand Pari : l'aventure du Traité de Rome (avec Christiane Rimbaud) ; Paris : Fayard, 1991.  (ISBN 2-213-02798-6)
-Livres pour enfants[9]
+Livres pour enfants
 Contes de je ne sais quand ; éditions Hachette, collection Idéal-Bibliothèque, 1952
 Plume et le saumon ;Hachette, coll. Idéal-Bibliothèque, 1954
 Plume et le Saumon ; Hachette, coll. Idéal-Bibliothèque, 1954
@@ -674,31 +837,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Pineau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Grand officier de la Légion d'honneur
  Compagnon de la Libération
